--- a/Restaurant/src/test/resources/RestaurantDatas.xlsx
+++ b/Restaurant/src/test/resources/RestaurantDatas.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3AD1781C-05A8-4539-974D-35894AE30619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\Restaurant\Restaurant\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B692B81-072F-48CD-8FDA-085152B65C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17712" windowHeight="13224" firstSheet="2" activeTab="4" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Waiter" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,6 @@
     <sheet name="ExpenseCategory" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
   <si>
     <t>Phone</t>
   </si>
@@ -235,6 +239,141 @@
   </si>
   <si>
     <t>Expt_Catg</t>
+  </si>
+  <si>
+    <t>MNCQuantity</t>
+  </si>
+  <si>
+    <t>MNCPrice</t>
+  </si>
+  <si>
+    <t>SMAStore</t>
+  </si>
+  <si>
+    <t>sma@gmail.com</t>
+  </si>
+  <si>
+    <t>Kollam</t>
+  </si>
+  <si>
+    <t>SM Pallimukku</t>
+  </si>
+  <si>
+    <t>ste,ahdvjhfje</t>
+  </si>
+  <si>
+    <t>Family Store</t>
+  </si>
+  <si>
+    <t>shib@gmail.com</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>2921</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>34636379873</t>
+  </si>
+  <si>
+    <t>9387489327</t>
+  </si>
+  <si>
+    <t>7634633215</t>
+  </si>
+  <si>
+    <t>982363876</t>
+  </si>
+  <si>
+    <t>6778956473</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>Anas</t>
+  </si>
+  <si>
+    <t>9825367481</t>
+  </si>
+  <si>
+    <t>6583048912</t>
+  </si>
+  <si>
+    <t>anas@gmail.com</t>
+  </si>
+  <si>
+    <t>harw,cgefh</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>05/10/2023</t>
+  </si>
+  <si>
+    <t>cutlet</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>Hai to all</t>
+  </si>
+  <si>
+    <t>Exept_Categry</t>
+  </si>
+  <si>
+    <t>Fried</t>
+  </si>
+  <si>
+    <t>2789</t>
+  </si>
+  <si>
+    <t>8967</t>
+  </si>
+  <si>
+    <t>Badushah</t>
+  </si>
+  <si>
+    <t>9876543212</t>
+  </si>
+  <si>
+    <t>8764567890</t>
+  </si>
+  <si>
+    <t>6578437889</t>
   </si>
 </sst>
 </file>
@@ -282,8 +421,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,16 +738,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08DD271-5C13-4EE2-949A-3EC5823AEF09}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
@@ -617,7 +756,7 @@
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -629,21 +768,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>34636379873</v>
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{458DCB87-3F30-4376-8683-8FCC6A0A868C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4432C552-3724-474B-BA97-B619F51CB1DC}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{5ED806F2-7BC4-47FF-AA77-40727C3EC1B4}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{D9D030C4-5274-4EA2-8B97-B7355ECC982B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -651,34 +835,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC29DD-DCAE-456B-A505-B9024190F75F}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.21875" customWidth="1"/>
     <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
@@ -690,22 +876,22 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L1" t="s">
@@ -714,13 +900,19 @@
       <c r="M1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>2980</v>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -731,23 +923,23 @@
       <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
+      <c r="F2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="I2">
-        <v>50</v>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="K2">
-        <v>30</v>
+      <c r="K2" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="L2" t="s">
         <v>42</v>
@@ -755,13 +947,19 @@
       <c r="M2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3">
-        <v>4320</v>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -772,29 +970,40 @@
       <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
+      <c r="F3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="I3">
-        <v>150</v>
+      <c r="I3" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
       </c>
-      <c r="K3">
-        <v>10</v>
+      <c r="K3" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -804,17 +1013,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CC8274-F3F0-4EC1-929F-A50C13D3BC59}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" customWidth="1"/>
@@ -825,10 +1034,10 @@
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D1" t="s">
@@ -848,11 +1057,11 @@
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C2">
-        <v>9387489327</v>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -865,11 +1074,40 @@
       </c>
       <c r="G2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{75271E3B-FB64-48D1-B319-C47A86697205}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5BD98F41-FF57-4CBD-A685-3A1826F22A63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -877,51 +1115,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F2D0E0-C770-4566-B96C-6F74DFED594E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>982363876</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.2</v>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0C51056E-D3C0-47D2-8DB4-9FA99C37F139}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7C88CC89-9675-4652-A27D-D0841D149D3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -929,17 +1192,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B681405-6D60-433B-8A7D-E871B8F59675}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -947,10 +1210,10 @@
       <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D1" t="s">
@@ -961,19 +1224,34 @@
       <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2">
-        <v>65830489</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1789AB88-2F9A-4239-B3C9-A79D645795E6}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9A372B85-1B48-45D8-A2E2-DD3205B1521A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -981,24 +1259,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F82E66-66C0-4BF1-9322-08A3B27C79F2}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
@@ -1010,7 +1288,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F1" t="s">
@@ -1018,8 +1296,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>44999</v>
+      <c r="A2" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -1030,11 +1308,31 @@
       <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="E2">
-        <v>20000</v>
+      <c r="E2" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1044,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC43F00-0393-4D46-8A02-0762BF020E17}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,6 +1363,11 @@
         <v>67</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1072,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266D86D2-FBAD-4364-A963-2C4FD2ED8425}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,6 +1396,11 @@
         <v>68</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Restaurant/src/test/resources/RestaurantDatas.xlsx
+++ b/Restaurant/src/test/resources/RestaurantDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\Restaurant\Restaurant\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B692B81-072F-48CD-8FDA-085152B65C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB840D6D-72C3-4DFD-B8B3-D935979A3F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Waiter" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>Phone</t>
   </si>
@@ -337,9 +337,6 @@
     <t>harw,cgefh</t>
   </si>
   <si>
-    <t>05/09/2023</t>
-  </si>
-  <si>
     <t>05/10/2023</t>
   </si>
   <si>
@@ -374,6 +371,15 @@
   </si>
   <si>
     <t>6578437889</t>
+  </si>
+  <si>
+    <t>Shibina</t>
+  </si>
+  <si>
+    <t>7893456788</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
   </si>
 </sst>
 </file>
@@ -738,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08DD271-5C13-4EE2-949A-3EC5823AEF09}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +774,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>88</v>
@@ -785,7 +791,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -799,7 +805,7 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>99</v>
@@ -813,13 +819,27 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -828,6 +848,7 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{4432C552-3724-474B-BA97-B619F51CB1DC}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{5ED806F2-7BC4-47FF-AA77-40727C3EC1B4}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{D9D030C4-5274-4EA2-8B97-B7355ECC982B}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{D535FF28-FBAA-45F6-9DFB-AEE215FF5F1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -912,7 +933,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -959,7 +980,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -1261,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F82E66-66C0-4BF1-9322-08A3B27C79F2}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,22 +1338,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
         <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +1386,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1419,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Restaurant/src/test/resources/RestaurantDatas.xlsx
+++ b/Restaurant/src/test/resources/RestaurantDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\Restaurant\Restaurant\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB840D6D-72C3-4DFD-B8B3-D935979A3F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323E77FF-07EC-4990-A482-A874481D10E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Waiter" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
   <si>
     <t>Phone</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Miraj</t>
   </si>
   <si>
-    <t>Pasta</t>
-  </si>
-  <si>
     <t>MNC</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>0.3</t>
   </si>
   <si>
-    <t>20000</t>
-  </si>
-  <si>
     <t>Anas</t>
   </si>
   <si>
@@ -337,15 +331,6 @@
     <t>harw,cgefh</t>
   </si>
   <si>
-    <t>05/10/2023</t>
-  </si>
-  <si>
-    <t>cutlet</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
     <t>Hai to all</t>
   </si>
   <si>
@@ -379,14 +364,32 @@
     <t>7893456788</t>
   </si>
   <si>
-    <t>05/11/2023</t>
+    <t>05/22/2023</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>06/08/2023</t>
+  </si>
+  <si>
+    <t>Nazrin</t>
+  </si>
+  <si>
+    <t>AANNA</t>
+  </si>
+  <si>
+    <t>Anuaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +401,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF34495E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,11 +434,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -774,10 +785,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -791,24 +802,24 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -819,24 +830,24 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -922,10 +933,10 @@
         <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -933,7 +944,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -945,22 +956,22 @@
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
         <v>42</v>
@@ -969,10 +980,10 @@
         <v>43</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -980,7 +991,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -992,22 +1003,22 @@
         <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
@@ -1016,15 +1027,15 @@
         <v>51</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1093,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -1099,30 +1110,30 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1169,13 +1180,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,23 +1194,23 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1213,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B681405-6D60-433B-8A7D-E871B8F59675}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1257,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>61</v>
@@ -1257,16 +1268,26 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1275,6 +1296,7 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{9A372B85-1B48-45D8-A2E2-DD3205B1521A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1282,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F82E66-66C0-4BF1-9322-08A3B27C79F2}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,42 +1340,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1381,12 +1403,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1414,12 +1436,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Restaurant/src/test/resources/RestaurantDatas.xlsx
+++ b/Restaurant/src/test/resources/RestaurantDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\Restaurant\Restaurant\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323E77FF-07EC-4990-A482-A874481D10E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34924C5-4479-4B58-A0A1-C8322D5F73BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Naseera</t>
   </si>
   <si>
-    <t>naseera@gmail.com</t>
-  </si>
-  <si>
     <t>MCDS</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Tasty Food Item</t>
   </si>
   <si>
-    <t>MNStore</t>
-  </si>
-  <si>
     <t>mn@gamil.com</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>Bilal</t>
   </si>
   <si>
-    <t>bilal@gmail.com</t>
-  </si>
-  <si>
     <t>gdsgfbvhjbbfcxnjbvjh</t>
   </si>
   <si>
@@ -244,9 +235,6 @@
     <t>MNCPrice</t>
   </si>
   <si>
-    <t>SMAStore</t>
-  </si>
-  <si>
     <t>sma@gmail.com</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>34636379873</t>
-  </si>
-  <si>
     <t>9387489327</t>
   </si>
   <si>
@@ -325,9 +310,6 @@
     <t>6583048912</t>
   </si>
   <si>
-    <t>anas@gmail.com</t>
-  </si>
-  <si>
     <t>harw,cgefh</t>
   </si>
   <si>
@@ -346,18 +328,6 @@
     <t>8967</t>
   </si>
   <si>
-    <t>Badushah</t>
-  </si>
-  <si>
-    <t>9876543212</t>
-  </si>
-  <si>
-    <t>8764567890</t>
-  </si>
-  <si>
-    <t>6578437889</t>
-  </si>
-  <si>
     <t>Shibina</t>
   </si>
   <si>
@@ -379,10 +349,40 @@
     <t>Nazrin</t>
   </si>
   <si>
-    <t>AANNA</t>
-  </si>
-  <si>
-    <t>Anuaa</t>
+    <t>shibina@gmail.com</t>
+  </si>
+  <si>
+    <t>shihab@gmail.com</t>
+  </si>
+  <si>
+    <t>9834256798</t>
+  </si>
+  <si>
+    <t>8976543234</t>
+  </si>
+  <si>
+    <t>anast2@gmail.com</t>
+  </si>
+  <si>
+    <t>shahi56@gmail.com</t>
+  </si>
+  <si>
+    <t>Khadija</t>
+  </si>
+  <si>
+    <t>9087654345</t>
+  </si>
+  <si>
+    <t>KJBStore</t>
+  </si>
+  <si>
+    <t>BMSStore</t>
+  </si>
+  <si>
+    <t>GJZugvtu</t>
+  </si>
+  <si>
+    <t>zRfSvHls</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +771,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -785,72 +785,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -894,148 +894,148 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,76 +1064,76 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1163,16 +1163,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1180,37 +1180,37 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B681405-6D60-433B-8A7D-E871B8F59675}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1240,44 +1240,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,9 +1286,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>116</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1320,62 +1323,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1398,17 +1401,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1431,17 +1434,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Restaurant/src/test/resources/RestaurantDatas.xlsx
+++ b/Restaurant/src/test/resources/RestaurantDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\Restaurant\Restaurant\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34924C5-4479-4B58-A0A1-C8322D5F73BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F725A-094D-4503-A072-DC67039F8499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
+    <workbookView xWindow="624" yWindow="132" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Waiter" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
   <si>
     <t>Phone</t>
   </si>
@@ -208,9 +208,6 @@
     <t>shahina@gmail.com</t>
   </si>
   <si>
-    <t>Bilal</t>
-  </si>
-  <si>
     <t>gdsgfbvhjbbfcxnjbvjh</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>ste,ahdvjhfje</t>
   </si>
   <si>
-    <t>Family Store</t>
-  </si>
-  <si>
     <t>shib@gmail.com</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
     <t>Eva</t>
   </si>
   <si>
-    <t>2921</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -379,10 +370,22 @@
     <t>BMSStore</t>
   </si>
   <si>
-    <t>GJZugvtu</t>
-  </si>
-  <si>
-    <t>zRfSvHls</t>
+    <t>WzNaCMpW</t>
+  </si>
+  <si>
+    <t>wstAONbH</t>
+  </si>
+  <si>
+    <t>Badhushah</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>Vj Stores</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,13 +788,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -799,27 +802,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -830,24 +833,24 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -867,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC29DD-DCAE-456B-A505-B9024190F75F}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,10 +936,10 @@
         <v>17</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -944,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -956,22 +959,22 @@
         <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -980,10 +983,10 @@
         <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -991,7 +994,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1003,22 +1006,22 @@
         <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
         <v>49</v>
@@ -1027,15 +1030,20 @@
         <v>50</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1047,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CC8274-F3F0-4EC1-929F-A50C13D3BC59}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,13 +1095,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -1110,30 +1118,30 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
       </c>
       <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>69</v>
-      </c>
-      <c r="G3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1180,37 +1188,37 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B681405-6D60-433B-8A7D-E871B8F59675}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1254,40 +1262,40 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1343,10 +1351,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1355,30 +1363,30 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1406,12 +1414,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1439,12 +1447,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
